--- a/biology/Écologie/Écozone_néarctique___plantes_à_graines_par_nom_scientifique/Écozone_néarctique___plantes_à_graines_par_nom_scientifique.xlsx
+++ b/biology/Écologie/Écozone_néarctique___plantes_à_graines_par_nom_scientifique/Écozone_néarctique___plantes_à_graines_par_nom_scientifique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89cozone_n%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+          <t>Écozone_néarctique_:_plantes_à_graines_par_nom_scientifique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -481,6 +491,8 @@
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -488,7 +500,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89cozone_n%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+          <t>Écozone_néarctique_:_plantes_à_graines_par_nom_scientifique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -508,8 +520,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Abi
-Abies - Sapin
+          <t>Abi</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Abies - Sapin
 Abies amabilis - Sapin gracieux
 Abies balsamea - Sapin baumier
 Abies concolor - Sapin argenté
@@ -526,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89cozone_n%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+          <t>Écozone_néarctique_:_plantes_à_graines_par_nom_scientifique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,8 +563,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ace
-Acer - Érable
+          <t>Ace</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Acer - Érable
 Acer circinatum - Érable circiné
 Acer glabrum - érable nain
 Acer macrophyllum - Érable à grandes feuilles
@@ -567,7 +589,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89cozone_n%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+          <t>Écozone_néarctique_:_plantes_à_graines_par_nom_scientifique</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -587,8 +609,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Aes
-Aesculus - Marronnier
+          <t>Aes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Aesculus - Marronnier
 Aesculus glabra - Marronnier glabre</t>
         </is>
       </c>
@@ -599,7 +626,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>%C3%89cozone_n%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+          <t>Écozone_néarctique_:_plantes_à_graines_par_nom_scientifique</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -619,8 +646,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Aga
-Agave
+          <t>Aga</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Agave
 Agave americana - Agave américain
 Agave atrovirens
 Agave attenuata
@@ -642,9 +674,43 @@
 Agave stricta
 Agave tequilana
 Agave utahensis
-Agave victoriae-reginae
-Agr
-Agrimonia - Rosacées
+Agave victoriae-reginae</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Écozone_néarctique_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Ag</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Agr</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Agrimonia - Rosacées
 Agrimonia grysosepala - Aigremoine à sépales crochus
 Agrimonia parviflora
 Agrimonia pubescens - Aigremoine pubescent
@@ -653,34 +719,39 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_n%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Écozone_néarctique_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Al</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Aln
-Alnus - Aulne
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Aln</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Alnus - Aulne
 Alnus incana - Aulne blanc
 Alnus rubra - Aulne rouge
 Alnus serrulata
@@ -688,37 +759,76 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_n%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Écozone_néarctique_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Am</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Ama
-Amaranthus - Amaranthacées
-Amaranthus albus - Amarante blanche
-Ame
-Amelanchier - Amélanchier
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Ama</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Amaranthus - Amaranthacées
+Amaranthus albus - Amarante blanche</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Écozone_néarctique_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Am</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Ame</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Amelanchier - Amélanchier
 Amelanchier alnifolia - Amélancher à feuille d'aulne
 Amelanchier arborea - Amélancher arborescent
 Amelanchier bartramiana - Amélanchier de Bartram
@@ -728,86 +838,13 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_n%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Ar</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Ara
-Arachis - Fabacées
-Arachis hypogaea - Arachide
-Arb
-Arbutus - Arbousier
-Arbutus menziesii - Arbousier d'Amérique
-Ari
-Aristolochia - Aristolochiacées
-Aristolochia durior - Aristoloche sipho</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_n%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>As</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Asa
-Asarum - fam. Aristolochiacées
-Asarum canadense - Gingembre sauvage ou Asaret
-Asi
-Asimina - Asiminier
-Asimina triloba - Asiminier tribolé</t>
-        </is>
-      </c>
-    </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>%C3%89cozone_n%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+          <t>Écozone_néarctique_:_plantes_à_graines_par_nom_scientifique</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -822,13 +859,204 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
+          <t>Ar</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Ara</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Arachis - Fabacées
+Arachis hypogaea - Arachide</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Écozone_néarctique_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Ar</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Arb</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arbutus - Arbousier
+Arbutus menziesii - Arbousier d'Amérique
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Écozone_néarctique_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Ar</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Ari</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Aristolochia - Aristolochiacées
+Aristolochia durior - Aristoloche sipho</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Écozone_néarctique_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>As</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Asa</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Asarum - fam. Aristolochiacées
+Asarum canadense - Gingembre sauvage ou Asaret</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Écozone_néarctique_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>As</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Asi</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Asimina - Asiminier
+Asimina triloba - Asiminier tribolé</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Écozone_néarctique_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>Be</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Bet
-Betula - Bouleau
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Bet</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Betula - Bouleau
 Betula alleghaniensis - Bouleau jaune
 Betula lenta - Bouleau flexible
 Betula neoalaskana - Bouleau d'Alaska
@@ -839,34 +1067,39 @@
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_n%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Écozone_néarctique_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>Ca</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Cal
-Calceolaria - fam. Scrophulariacées
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Cal</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Calceolaria - fam. Scrophulariacées
 Calceolaria crenatiflora - Calcéolaire
 Calceolaria herbeohybrida - Calcéolaire d'appartement ou Pantoufle
 Calceolaria integrifolia - Calcéolaire
@@ -876,139 +1109,426 @@
 Callicarpa - Verbénacées
 Callicarpa americana
 Calypso - Orchidaceae
-Calypso bulbosa
-Cam
-Campsis - Bignoniacées
-Campsis radicans - Trompette de Virginie
-Car
-Carpinus - fam. Betulaceae
+Calypso bulbosa</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Écozone_néarctique_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Ca</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Cam</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Campsis - Bignoniacées
+Campsis radicans - Trompette de Virginie</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Écozone_néarctique_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Ca</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Car</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Carpinus - fam. Betulaceae
 Carpinus caroliniana - Charme de Caroline
 Carya - fam. Juglandaceae
 Carya cordiformis - Caryer cordiforme
 Carya glabra - Caryer glabre
 Carya illinoinensis - Pacanier
 Carya laciniosa - Caryer lacinié
-Carya ovata - Caryer ovale
-Cas
-Castanea - fam. Fagaceae
-Castanea dentata - Châtaignier d'Amérique
-Cat
-Catalpa - fam. Bignoniaceae
+Carya ovata - Caryer ovale</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Écozone_néarctique_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Ca</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Cas</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Castanea - fam. Fagaceae
+Castanea dentata - Châtaignier d'Amérique</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Écozone_néarctique_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Ca</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Cat</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Catalpa - fam. Bignoniaceae
 Catalpa bignonioides - Catalpa commun
 Catalpa speciosa - Catalpa à feuille cordée</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_n%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Écozone_néarctique_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
         <is>
           <t>Ce</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Cea
-Ceanothus - fam. Rhamnacées
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Cea</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Ceanothus - fam. Rhamnacées
 Ceanothus burkwoodii - Céanothe
 Ceanothus impressus - Céanothe
 Ceanothus thyrsiflorus - Céanothe
 Ceanothus delilianus - Céanothe
 Ceanothus pallidus - Céanothe
-Ceanothus prostratus - Céanothe
-Cel
-Celtis - fam. Ulmaceae
+Ceanothus prostratus - Céanothe</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Écozone_néarctique_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Ce</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Cel</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Celtis - fam. Ulmaceae
 Celtis occidentalis - Micocoulier occidental
-Celtis tenuifolia - Micocoulier rabougri
-Cep
-Cephalanthus - fam. Rubiaceae
-Cephalanthus occidentalis - Céphalanthe occidental
-Cer
-Cercis - fam. Fabaceae
+Celtis tenuifolia - Micocoulier rabougri</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Écozone_néarctique_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Ce</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Cep</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Cephalanthus - fam. Rubiaceae
+Cephalanthus occidentalis - Céphalanthe occidental</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Écozone_néarctique_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Ce</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Cer</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Cercis - fam. Fabaceae
 Cercis canadensis - Gainier rouge</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_n%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Écozone_néarctique_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
         <is>
           <t>Ch</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Cha
-Chamaecyparis - fam. Cupressaceae
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Cha</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Chamaecyparis - fam. Cupressaceae
 Chamaecyparis nootkatensis</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_n%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Écozone_néarctique_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
         <is>
           <t>Co</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Cob
-Cobæa - Polémoniacées
-Cobæa scandens - Cobée grimpante
-Cor
-Coreopsis - fam. Astéracées
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Cob</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Cobæa - Polémoniacées
+Cobæa scandens - Cobée grimpante</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Écozone_néarctique_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Co</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Cor</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Coreopsis - fam. Astéracées
 Coreopsis basalis - Coreopsis de Drummond
 Coreopsis grandiflora - Coreopsis à grandes fleurs
 Coreopsis lanceolata - Coreopsis lancéolata
@@ -1025,34 +1545,39 @@
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_n%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Écozone_néarctique_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Cra
-Crataegus - fam. Rosaceae
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Cra</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Crataegus - fam. Rosaceae
 Crataegus calpodendron - Aubépine à fruits piriformes
 Crataegus chrysocarpa - Aubépine dorée
 Crataegus coccinea - Aubépine écarlate
@@ -1066,190 +1591,239 @@
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_n%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Écozone_néarctique_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
         <is>
           <t>Da</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Dar
-Darlingtonia - Sarracéniacées
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Dar</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Darlingtonia - Sarracéniacées
 Darlingtonia californica - Plante cobra</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_n%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Écozone_néarctique_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
         <is>
           <t>Di</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Distoréide - Dopéraminoïdes
-Dio
-Dionaea - Droséracées
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Distoréide - Dopéraminoïdes</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Écozone_néarctique_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Di</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Dio</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dionaea - Droséracées
 Dionaea muscipula - Dionée attrape-mouche
 </t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_n%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Écozone_néarctique_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
         <is>
           <t>El</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
         <is>
           <t>Elaeagnus - fam. Elaeagnaceae
 Elaeagnus commutata - Chalef argenté</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_n%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Écozone_néarctique_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
         <is>
           <t>Eu</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
         <is>
           <t>Euphorbia - fam Euphorbiacées
 Euphorbia maculata</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_n%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Écozone_néarctique_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
         <is>
           <t>Fa</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
         <is>
           <t>Fagus fam. Fagaceae
 Fagus grandifolia - Hêtre à grandes feuilles</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_n%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Écozone_néarctique_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
         <is>
           <t>Fr</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
         <is>
           <t>Fraxinus fam. oleaceae
 Fraxinus americana - Frêne blanc
@@ -1261,31 +1835,33 @@
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_n%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Écozone_néarctique_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
         <is>
           <t xml:space="preserve">Gleditsia - Fabacées
 Gleditsia triacanthos - Févier épineux
@@ -1294,156 +1870,169 @@
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_n%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Écozone_néarctique_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
         <is>
           <t>Lysichiton - fam. Araceae
 Lysichiton americanus - Lysichiton américain ou Lysichite jaune</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_n%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Écozone_néarctique_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr">
         <is>
           <t>Monarda - Lamiacées
 Monarda didyma - Monarde</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_n%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Écozone_néarctique_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr">
         <is>
           <t xml:space="preserve">Nelumbo lutea - Lotus jaune d'Amérique
 </t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_n%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Écozone_néarctique_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
         <is>
           <t>Pa</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Par
-Parthenocissus - fam. Vitacées
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Par</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Parthenocissus - fam. Vitacées
 Parthenocissus quinquefolia - Vigne vierge de Virginie</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_n%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Écozone_néarctique_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
         <is>
           <t>Ph</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr">
         <is>
           <t>Phytolacca - fam. Phytolaccaceae
 Phytolacca americana - Raisin d'Amérique
@@ -1451,37 +2040,76 @@
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_n%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Écozone_néarctique_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
         <is>
           <t>Po</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Pon
-Pontederia - fam. Pontédériacées
-Pontederia cordata - Pontédérie à feuilles en cœur
-Pop
-Populus - fam. Salicacées
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Pon</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Pontederia - fam. Pontédériacées
+Pontederia cordata - Pontédérie à feuilles en cœur</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Écozone_néarctique_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Po</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Pop</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Populus - fam. Salicacées
 Populus angustifolia - Peuplier à feuilles étroites
 Populus balsamifera - Peuplier baumier
 Populus deltoides - Peuplier deltoïde
@@ -1491,34 +2119,39 @@
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_n%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Écozone_néarctique_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
         <is>
           <t>Pr</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pre
-Prenanthes - fam. Astéracées
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Pre</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Prenanthes - fam. Astéracées
 Prenanthes alata (Hook.) D. Dietr.
 Prenanthes alba L.
 Prenanthes altissima L.
@@ -1538,31 +2171,33 @@
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_n%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Écozone_néarctique_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
         <is>
           <t>Q</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr">
         <is>
           <t xml:space="preserve">Quercus - fam. Fagacées
 Quercus acerifolia
@@ -1663,31 +2298,33 @@
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_n%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Écozone_néarctique_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr">
         <is>
           <t>Sambucus - fam. Adoxacées - voir aussi variétés paléoartiques
 Sambucus canadensis - Sureau blanc ou « Sureau du Canada »
@@ -1698,31 +2335,33 @@
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_n%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Écozone_néarctique_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
         <is>
           <t>T</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr">
         <is>
           <t xml:space="preserve">Tigridia - fam. des iridacées
 Tigridia chiapensis
